--- a/domein_info.xlsx
+++ b/domein_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamscmostamm-my.sharepoint.com/personal/mkooistra_cmostamm_nl/Documents/Bureaublad/writing/digiwerksessie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Werkmap Brede Welvaart\b. Brede Welvaart inhoudelijk\Digitale werksessie\werkmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{56C3D7D0-35C5-448E-9C30-E27794270893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F31AED6-F193-4E68-A721-E59CC086F771}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FE732-EE7C-4B47-A1A8-A77992A7B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F1A7938-CC36-4E56-8353-CC415D50E58C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F1A7938-CC36-4E56-8353-CC415D50E58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>hulpvragen</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Materiële welvaart</t>
   </si>
   <si>
-    <t>iets met geld enzo :(</t>
-  </si>
-  <si>
-    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/materiele-welvaart/#:~:text=In%202021%20lag%20het%20mediaan,(stijgende)%20trend%20sinds%202013.</t>
-  </si>
-  <si>
     <t>https://trendbureaudrenthe.nl/brede-welvaart/materiele-welvaart/</t>
   </si>
   <si>
@@ -65,32 +59,154 @@
     <t>introductietekst</t>
   </si>
   <si>
-    <t>wat is het effect voor mensen met lage inkomens? - Wat is het effect op het gemiddeld inkomen?</t>
-  </si>
-  <si>
     <t>Gezondheid</t>
   </si>
   <si>
-    <t>Gezondheid gaat over…</t>
-  </si>
-  <si>
-    <t>wat is het effect op de gezondheid? - Wat is het effect op hoeveel mensen bewegen? - Wat is het effect op de gezondheidszorg?</t>
-  </si>
-  <si>
-    <t>neplink</t>
+    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/materiele-welvaart/</t>
+  </si>
+  <si>
+    <t>Arbeid en vrije tijd</t>
+  </si>
+  <si>
+    <t>Wonen</t>
+  </si>
+  <si>
+    <t>Veiligheid</t>
+  </si>
+  <si>
+    <t>Milieu</t>
+  </si>
+  <si>
+    <t>Welzijn</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/gezondheid/</t>
+  </si>
+  <si>
+    <t>Materiële welvaart gaat over de financiële situatie van mensen. Hoewel welzijn en geluk niet enkel om geld draaien, biedt het hebben van voldoende inkomen wel een belangrijke basis. Het hebben van een passend inkomen is namelijk van belang om aan basisbehoeften te kunnen voldoen. Wanneer het inkomen voldoende en stabiel is, geeft dat meer zekerheid en autonomie in het leven.</t>
+  </si>
+  <si>
+    <t>Mensen die in goede gezondheid leven ervaren over het algemeen een betere kwaliteit van leven, zijn zelfredzamer en doen minder (vaak) een beroep op de zorg. Gezondheid wordt gemeten met indicatoren zoals levensverwachting, leefstijl, en de aanwezigheid van ziekten en aandoeningen, maar ook met indicatoren over hoe mensen hun lichamelijke en geestelijke gezondheid beoordelen.</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/arbeid-en-vrije-tijd/</t>
+  </si>
+  <si>
+    <t>Op persoonlijk niveau hangt brede welvaart voor veel mensen sterk af van het hebben van passend en betaald werk. Het is belangrijk dat werk en vrije tijd goed in balans zijn voor een goede kwaliteit van leven. Als meer mensen werken kan dat tot economische groei leiden. Vooral in een context van vergrijzing is het belangrijk om publieke voorzieningen, zoals zorg, onderwijs en sociale zekerheid, te behouden. Ook is het belangrijk dat de arbeidsmarkt en het onderwijs goed op elkaar aansluiten.</t>
+  </si>
+  <si>
+    <t>Woontevredenheid vormt een belangrijk aspect van de brede welvaart. Het gaat namelijk zowel om hoe als waar mensen wonen. De woning zelf is erg bepalend voor de kwaliteit van leven, denk daarbij bijvoorbeeld aan de betaalbaarheid en beschikbaarheid van (passende) woningen. Naast de woning zelf is ook de woonomgeving erg belangrijk. De nabijheid van voorzieningen en de kwaliteit van de woonomgeving kan sterk verschillen tussen woonlocaties. Waar iemand woont heeft ook impact op andere onderdelen van brede welvaart. Denk bijvoorbeeld aan sociale cohesie in de buurt, veiligheidsbeleving en groen in de wijk. Niet iedereen heeft dezelfde wensen en behoeften als het gaat om wonen. Bovendien veranderen deze wensen vaak in de loop van tijd. De woningmarkt is daarom ook een belangrijk onderdeel van het thema Wonen.</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/wonen/</t>
+  </si>
+  <si>
+    <t>Samenleving ipv sociaal?</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/samenleving/</t>
+  </si>
+  <si>
+    <t>Een sterke sociale samenhang is essentieel voor een goed functionerende samenleving en draagt bij aan brede welvaart. Sociale samenhang heeft betrekking op hoe men zich ten opzichte van elkaar gedraagt en hoe men meedoet in de samenleving. Het gaat daarbij niet alleen om de relaties tussen mensen onderling, maar ook om het vertrouwen in maatschappelijke instituties, zoals de overheid en het rechtssysteem. Goede sociale contacten versterken de verbondenheid en bieden een vangnet in moeilijke tijden, terwijl vertrouwen in instituties belangrijk is voor actieve deelname aan de samenleving. Het is daarbij belangrijk dat iedereen gelijke kansen heeft om mee te doen.</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/veiligheid/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veiligheid is de basis voor een leefbare omgeving waar mensen prettig kunnen wonen, werken en recreëren. Het gevoel van veiligheid is daarbij van groot belang: wie zich veilig voelt, is gelukkiger en meer betrokken bij zijn of haar buurt. Naast ervaren veiligheid wordt ook de feitelijke veiligheid bedoelt, waar criminaliteit en overlast wordt bedoelt. </t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/milieu/</t>
+  </si>
+  <si>
+    <t>Het milieu en de leefomgeving spelen een belangrijke rol in het goed en gezond kunnen leven. Bovendien heeft het milieu invloed op de mate waarin mensen zich thuis voelen en betrokken zijn bij hun omgeving. Voldoende ruimte, natuur en schone lucht dragen bij aan dit gevoel van welzijn en verbondenheid met de regio.</t>
+  </si>
+  <si>
+    <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/welzijn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welzijn is iets wat iedereen persoonlijk beleeft en gaat over de mate waarin men tevreden is met de eigen leefsituatie. De waardering die mensen aan hun leven geven speelt een belangrijke rol voor subjectief welzijn. De optelsom van het subjectieve welbevinden van inwoners geeft inzicht in de kwaliteit van de samenleving als geheel. </t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/gezondheid-en-leefstijl/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/arbeid-en-vrije-tijd/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/wonen/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/samenleving/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/veiligheid/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/milieu/</t>
+  </si>
+  <si>
+    <t>https://trendbureaudrenthe.nl/brede-welvaart/welzijn/</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de leefbaarheid? - Wat is het effect op de tevredenheid (met het leven)?</t>
+  </si>
+  <si>
+    <t>Wat is het effect voor mensen met lage inkomens? - Wat is het effect op het gemiddeld inkomen? - Wat is het effect op het aantal banen en het soort banen?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de mentale en fysieke gezondheid? - Wat is het effect op hoeveel mensen bewegen? - Wat is het effect op de beschikbaarheid en bereikbaarheid van gezondheidszorg?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de werk (of school) en privé balans? - Wat is het effect op het soort en aantal vrijetijdsmogelijkheden? - Wat is het effect op de beschikbare opleidingen?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de beschikbaarheid en kwaliteit van woningen? - Wat is het effect op de ratio huur/koopwoningen? - Wat is het effect op de kwaliteit en eventuele overlast van de wijk?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de sociale contacten en binding in de wijk? - Wat is het effect op inclusie, gelijkheid en kansen voor iedereen? - Wat is het effect op het vertrouwen in de samenleving en de overheid?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de ervaren veiligheid in de wijk? Wat is het effect op de veiligheid in het verkeer? - Wat is het effect op potentiële risico's gerelateerd aan misdaad, discriminatie en ongevallen?</t>
+  </si>
+  <si>
+    <t>Wat is het effect op de natuur en biodiversiteit? Wat is het effect op de kwaliteit van de bodem en de lucht? - Wat is het effect op landbouwgrond?</t>
+  </si>
+  <si>
+    <t>Symbolen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,14 +226,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -132,12 +262,365 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1236345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1470480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283E034E-D4CB-2F56-B38A-564BFF2B47C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9088755" y="11418570"/>
+          <a:ext cx="1440000" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438781</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>151001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Afbeelding 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C2322E-3463-825F-06BB-6D4EDEE3563F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="182880"/>
+          <a:ext cx="1438781" cy="1438781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1444877</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Afbeelding 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE74F8-5DA8-8F86-27CB-CF024C789A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="1470660"/>
+          <a:ext cx="1444877" cy="1438781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1444877</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1438781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Afbeelding 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679A6B84-39A9-8AF1-C89B-1F6B27E29545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="2766060"/>
+          <a:ext cx="1444877" cy="1438781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438781</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1444877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Afbeelding 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2CD72A-C5EF-B29A-2CCF-19465ABB099D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="4411980"/>
+          <a:ext cx="1438781" cy="1444877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438781</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1444877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Afbeelding 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406F300C-DE18-A049-DD6A-D542464E8DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="6758940"/>
+          <a:ext cx="1438781" cy="1444877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Afbeelding 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7097FA26-5730-39D9-0508-BCCED837CE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="8816340"/>
+          <a:ext cx="1438781" cy="1438781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1438781</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Afbeelding 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF093F9-2425-3EE3-2316-CB009A13FCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="10182225"/>
+          <a:ext cx="1438781" cy="1438781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,71 +936,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307AA7CB-0D94-4659-89DC-DDE4D6AC874D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C3D3FB84-54A6-49C7-A9A8-F154C66BBA67}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D869D427-7899-44D7-ACC0-97059BD904D8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{C5C443BF-2578-4834-BB64-C993126A1F47}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{FDF398C7-5ED1-4B47-955A-0A853644A1AB}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5A5614BC-EB22-445E-962B-B2677AAA6937}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{592E9FA4-ABAF-49B5-B017-0CDBB79863B0}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{32603693-6857-4E96-81C4-790D0E6126FE}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{BF839696-7BE9-4016-86B4-D205EB3CCE8B}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{12303277-625C-4D13-9510-A5BAFB790AE8}"/>
+    <hyperlink ref="E3" r:id="rId10" xr:uid="{56C9E365-D742-44D3-A6CF-3C7B352AE309}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{39FBFF66-3857-49C3-BFD1-1AA43EE4C272}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{FD33F3A9-B764-43B8-A03C-C5C51642B0E6}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{066F6477-17F6-493A-BEF1-AE860B87923F}"/>
+    <hyperlink ref="E7" r:id="rId14" xr:uid="{F5E1B7D7-EA3C-4B2B-8AAC-1AB96E49AB53}"/>
+    <hyperlink ref="E8" r:id="rId15" xr:uid="{25D940DB-70AC-4D18-B380-4E89936FE82A}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{9B7B48D5-EC79-4C5A-A316-419D6110A206}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/domein_info.xlsx
+++ b/domein_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Werkmap Brede Welvaart\b. Brede Welvaart inhoudelijk\Digitale werksessie\werkmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamscmostamm-my.sharepoint.com/personal/mkooistra_cmostamm_nl/Documents/Bureaublad/writing/digiwerksessie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FE732-EE7C-4B47-A1A8-A77992A7B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DB9FE732-EE7C-4B47-A1A8-A77992A7B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAB38D6-6330-4DA9-B155-48476FE1AB67}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F1A7938-CC36-4E56-8353-CC415D50E58C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F1A7938-CC36-4E56-8353-CC415D50E58C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>https://sociaalplanbureaugroningen.nl/wonen/</t>
   </si>
   <si>
-    <t>Samenleving ipv sociaal?</t>
-  </si>
-  <si>
     <t>https://sociaalplanbureaugroningen.nl/brede-welvaart/samenleving/</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Symbolen</t>
+  </si>
+  <si>
+    <t>Sociaal</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,7 +620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,20 +939,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -969,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -990,7 +990,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -998,17 +998,17 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1016,17 +1016,17 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="184.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1034,85 +1034,85 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
     </row>
